--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -760,6 +760,49 @@
         <v>80700</v>
       </c>
       <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>보합</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>483552386</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>19.45</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>81000</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>13809157</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>1119472</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>81700</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>80700</v>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>보합</t>
         </is>
@@ -786,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1071,6 +1114,49 @@
         <v>132000</v>
       </c>
       <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>60152458</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>197.23</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>687</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>135500</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>3635863</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>489129</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>136500</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>132000</v>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
@@ -1097,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1382,6 +1468,49 @@
         <v>124000</v>
       </c>
       <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>93184302</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>128000</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>4535613</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>574198</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>128500</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>124000</v>
+      </c>
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
@@ -1408,7 +1537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
@@ -1659,40 +1788,83 @@
       <c r="A6" s="8" t="n">
         <v>44359</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="4" t="n">
         <v>61188114</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>3.79</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="4" t="n">
         <v>98182</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="4" t="n">
         <v>372500</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="4" t="n">
         <v>-1000</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="4" t="n">
         <v>-0.27</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="4" t="n">
         <v>654812</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="4" t="n">
         <v>244307</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="4" t="n">
         <v>378500</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="4" t="n">
         <v>367500</v>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B7" t="n">
+        <v>61188114</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D7" t="n">
+        <v>98182</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>372500</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="I7" t="n">
+        <v>654812</v>
+      </c>
+      <c r="J7" t="n">
+        <v>244307</v>
+      </c>
+      <c r="K7" t="n">
+        <v>378500</v>
+      </c>
+      <c r="L7" t="n">
+        <v>367500</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>하락</t>
         </is>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -805,6 +805,49 @@
       <c r="M7" s="4" t="inlineStr">
         <is>
           <t>보합</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>480567495</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>80500</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>-500</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>10147475</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>818004</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>80900</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>80500</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
         </is>
       </c>
     </row>
@@ -829,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1157,6 +1200,49 @@
         <v>132000</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>63259965</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>207.42</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>687</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>142500</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>6192633</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>871737</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>143000</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>136000</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
@@ -1183,7 +1269,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1513,6 +1599,49 @@
       <c r="M7" s="4" t="inlineStr">
         <is>
           <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>92456300</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>127000</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>2016336</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>255350</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>127500</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>125500</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
@@ -1831,42 +1960,85 @@
       <c r="A7" s="8" t="n">
         <v>44360</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="4" t="n">
         <v>61188114</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>3.79</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="4" t="n">
         <v>98182</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="4" t="n">
         <v>2.5</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4" t="n">
         <v>372500</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="4" t="n">
         <v>-1000</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="4" t="n">
         <v>-0.27</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="4" t="n">
         <v>654812</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="4" t="n">
         <v>244307</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="4" t="n">
         <v>378500</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="4" t="n">
         <v>367500</v>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M7" s="4" t="inlineStr">
         <is>
           <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>44361</v>
+      </c>
+      <c r="B8" t="n">
+        <v>63569933</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D8" t="n">
+        <v>98182</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>387000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14500</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1203234</v>
+      </c>
+      <c r="J8" t="n">
+        <v>463105</v>
+      </c>
+      <c r="K8" t="n">
+        <v>388000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>375500</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>상승</t>
         </is>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -848,6 +848,49 @@
       <c r="M8" s="4" t="inlineStr">
         <is>
           <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>482955408</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>80900</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>9836756</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>794825</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>81200</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>80600</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
         </is>
       </c>
     </row>
@@ -872,7 +915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1243,6 +1286,49 @@
         <v>136000</v>
       </c>
       <c r="M8" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>64147825</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>210.33</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>687</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>144500</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>4921622</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>702514</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>144500</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>140500</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
@@ -1269,7 +1355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1642,6 +1728,49 @@
       <c r="M8" s="4" t="inlineStr">
         <is>
           <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>93548303</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>128500</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>1964967</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>252712</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>129500</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>128000</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
@@ -2003,42 +2132,85 @@
       <c r="A8" s="8" t="n">
         <v>44361</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="4" t="n">
         <v>63569933</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>3.94</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="4" t="n">
         <v>98182</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="4" t="n">
         <v>2.6</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="4" t="n">
         <v>387000</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="4" t="n">
         <v>14500</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="4" t="n">
         <v>3.89</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="4" t="n">
         <v>1203234</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="4" t="n">
         <v>463105</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="4" t="n">
         <v>388000</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="4" t="n">
         <v>375500</v>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B9" t="n">
+        <v>63569933</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="D9" t="n">
+        <v>98182</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>387000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>623254</v>
+      </c>
+      <c r="J9" t="n">
+        <v>240391</v>
+      </c>
+      <c r="K9" t="n">
+        <v>389000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>381500</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>보합</t>
         </is>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -889,6 +889,49 @@
         <v>80600</v>
       </c>
       <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>486537277</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>19.57</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>81500</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>5550989</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>451719</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>81700</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>81100</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
@@ -915,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1331,6 +1374,49 @@
       <c r="M9" s="4" t="inlineStr">
         <is>
           <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>63703895</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>208.88</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>687</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>143500</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>2621320</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>377556</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>146000</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>142500</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1769,6 +1855,49 @@
         <v>128000</v>
       </c>
       <c r="M9" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>93912305</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>129000</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>561424</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>71959</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>129000</v>
+      </c>
+      <c r="L10" s="4" t="n">
+        <v>127000</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
@@ -1795,7 +1924,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
@@ -2175,42 +2304,85 @@
       <c r="A9" s="8" t="n">
         <v>44362</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="4" t="n">
         <v>63569933</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>3.94</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="4" t="n">
         <v>98182</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="4" t="n">
         <v>2.6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="4" t="n">
         <v>387000</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="4" t="n">
         <v>623254</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="4" t="n">
         <v>240391</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="4" t="n">
         <v>389000</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="4" t="n">
         <v>381500</v>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>보합</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>44363</v>
+      </c>
+      <c r="B10" t="n">
+        <v>63077143</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="D10" t="n">
+        <v>98182</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F10" t="n">
+        <v>384000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="I10" t="n">
+        <v>201887</v>
+      </c>
+      <c r="J10" t="n">
+        <v>77702</v>
+      </c>
+      <c r="K10" t="n">
+        <v>387500</v>
+      </c>
+      <c r="L10" t="n">
+        <v>383000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>하락</t>
         </is>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -899,34 +899,34 @@
         <v>44363</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>486537277</v>
+        <v>488328212</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>19.57</v>
+        <v>19.64</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>4165</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>81500</v>
+        <v>81800</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.74</v>
+        <v>1.11</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>5550989</v>
+        <v>14489552</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>451719</v>
+        <v>1181496</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>81700</v>
+        <v>81900</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>81100</v>
@@ -1382,31 +1382,31 @@
         <v>44363</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>63703895</v>
+        <v>63481930</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>208.88</v>
+        <v>208.15</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>687</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>9.27</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>143500</v>
+        <v>143000</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.04</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2621320</v>
+        <v>4962771</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>377556</v>
+        <v>712608</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>146000</v>
@@ -1865,10 +1865,10 @@
         <v>44363</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>93912305</v>
+        <v>94276306</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>18.42</v>
+        <v>18.49</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>7002</v>
@@ -1877,22 +1877,22 @@
         <v>1.69</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>129000</v>
+        <v>129500</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.39</v>
+        <v>0.78</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>561424</v>
+        <v>1865743</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>71959</v>
+        <v>240287</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>129000</v>
+        <v>129500</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>127000</v>
@@ -2348,41 +2348,41 @@
         <v>44363</v>
       </c>
       <c r="B10" t="n">
-        <v>63077143</v>
+        <v>64144855</v>
       </c>
       <c r="C10" t="n">
-        <v>3.91</v>
+        <v>3.98</v>
       </c>
       <c r="D10" t="n">
         <v>98182</v>
       </c>
       <c r="E10" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="F10" t="n">
-        <v>384000</v>
+        <v>390500</v>
       </c>
       <c r="G10" t="n">
-        <v>-3000</v>
+        <v>3500</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.78</v>
+        <v>0.9</v>
       </c>
       <c r="I10" t="n">
-        <v>201887</v>
+        <v>763393</v>
       </c>
       <c r="J10" t="n">
-        <v>77702</v>
+        <v>297324</v>
       </c>
       <c r="K10" t="n">
-        <v>387500</v>
+        <v>395000</v>
       </c>
       <c r="L10" t="n">
         <v>383000</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -934,6 +934,49 @@
       <c r="M10" s="4" t="inlineStr">
         <is>
           <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>482955408</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>80900</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>-900</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>13494704</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>1090826</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>81300</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>80700</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
         </is>
       </c>
     </row>
@@ -958,7 +1001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1417,6 +1460,49 @@
       <c r="M10" s="4" t="inlineStr">
         <is>
           <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>65701578</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>215.43</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>687</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>148000</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>5377681</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>784622</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>149500</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>140500</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1900,6 +1986,49 @@
       <c r="M10" s="4" t="inlineStr">
         <is>
           <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>92092299</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>126500</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>-3000</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>2101678</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>266005</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>128000</v>
+      </c>
+      <c r="L11" s="4" t="n">
+        <v>126000</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
         </is>
       </c>
     </row>
@@ -1924,7 +2053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
@@ -2347,42 +2476,85 @@
       <c r="A10" s="8" t="n">
         <v>44363</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="4" t="n">
         <v>64144855</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4" t="n">
         <v>3.98</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="4" t="n">
         <v>98182</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="4" t="n">
         <v>2.62</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="4" t="n">
         <v>390500</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="4" t="n">
         <v>3500</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="4" t="n">
         <v>763393</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="4" t="n">
         <v>297324</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="4" t="n">
         <v>395000</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="4" t="n">
         <v>383000</v>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="4" t="inlineStr">
         <is>
           <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>44364</v>
+      </c>
+      <c r="B11" t="n">
+        <v>63980592</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="D11" t="n">
+        <v>98182</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F11" t="n">
+        <v>389500</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1500</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="I11" t="n">
+        <v>668124</v>
+      </c>
+      <c r="J11" t="n">
+        <v>260268</v>
+      </c>
+      <c r="K11" t="n">
+        <v>394500</v>
+      </c>
+      <c r="L11" t="n">
+        <v>385000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>하락</t>
         </is>
       </c>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -975,6 +975,49 @@
         <v>80700</v>
       </c>
       <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>480567495</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>4165</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>80500</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>-400</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>14618173</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>1178323</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>81100</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>80500</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>하락</t>
         </is>
@@ -1001,7 +1044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -1501,6 +1544,49 @@
         <v>140500</v>
       </c>
       <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>상승</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>68809085</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>225.62</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>687</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>155000</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>7000</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>7643972</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>1183437</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>157500</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>149500</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>상승</t>
         </is>
@@ -1527,7 +1613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="A3:M5"/>
@@ -2027,6 +2113,49 @@
         <v>126000</v>
       </c>
       <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>90636294</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>17.78</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>7002</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>124500</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>-2000</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>2484383</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>311598</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>127500</v>
+      </c>
+      <c r="L12" s="4" t="n">
+        <v>124500</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
         <is>
           <t>하락</t>
         </is>
@@ -2053,7 +2182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:M5"/>
@@ -2519,42 +2648,85 @@
       <c r="A11" s="8" t="n">
         <v>44364</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="4" t="n">
         <v>63980592</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4" t="n">
         <v>3.97</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="4" t="n">
         <v>98182</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="4" t="n">
         <v>2.61</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="4" t="n">
         <v>389500</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="4" t="n">
         <v>-1500</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="4" t="n">
         <v>-0.38</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="4" t="n">
         <v>668124</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="4" t="n">
         <v>260268</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="4" t="n">
         <v>394500</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="4" t="n">
         <v>385000</v>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="4" t="inlineStr">
         <is>
           <t>하락</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B12" t="n">
+        <v>65376831</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>98182</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>398000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8500</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1225333</v>
+      </c>
+      <c r="J12" t="n">
+        <v>488394</v>
+      </c>
+      <c r="K12" t="n">
+        <v>400500</v>
+      </c>
+      <c r="L12" t="n">
+        <v>391000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>상승</t>
         </is>
       </c>
     </row>
